--- a/biology/Botanique/Ipomoea_tenuissima/Ipomoea_tenuissima.xlsx
+++ b/biology/Botanique/Ipomoea_tenuissima/Ipomoea_tenuissima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ipomoea tenuissima est une espèce de plantes dicotylédones de la famille des Convolvulaceae, originaire du  continent américain. C'est l'une des 13 espèces sauvages classées dans la série Batatas (Ipomoea subg. Eriospermum sect. Eriospermum)[2]. Cette espèce diploïde est un parent sauvage de la patate douce (Ipomoea batatas).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ipomoea tenuissima est une espèce de plantes dicotylédones de la famille des Convolvulaceae, originaire du  continent américain. C'est l'une des 13 espèces sauvages classées dans la série Batatas (Ipomoea subg. Eriospermum sect. Eriospermum). Cette espèce diploïde est un parent sauvage de la patate douce (Ipomoea batatas).
 </t>
         </is>
       </c>
